--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1My\Courses\CSE algorithms\project\CSE6140-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387DE56D-D2AC-4B67-8558-00E8E923E71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E970789-333E-4751-B66A-4685E07275A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="15">
   <si>
     <t>BnB</t>
   </si>
@@ -48,7 +48,28 @@
     <t>RelErr</t>
   </si>
   <si>
-    <t>As-22july</t>
+    <t>delaunay n10(opt703)</t>
+  </si>
+  <si>
+    <t>as-22july06(opt3303)</t>
+  </si>
+  <si>
+    <t>Email(opt594)</t>
+  </si>
+  <si>
+    <t>Football (opt94)</t>
+  </si>
+  <si>
+    <t>Jazz(158)</t>
+  </si>
+  <si>
+    <t>Hep-th(opt3926)</t>
+  </si>
+  <si>
+    <t>Jazz(opt158)</t>
+  </si>
+  <si>
+    <t>karate(opt14)</t>
   </si>
 </sst>
 </file>
@@ -371,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="105" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,7 +417,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -421,7 +442,9 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -445,7 +468,9 @@
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -469,7 +494,9 @@
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -493,7 +520,9 @@
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -517,7 +546,9 @@
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -541,6 +572,12 @@
       <c r="A26" t="s">
         <v>3</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -561,6 +598,12 @@
       <c r="A30" t="s">
         <v>3</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -572,82 +615,106 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1018,13 +1085,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B38:E38"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1My\Courses\CSE algorithms\project\CSE6140-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E970789-333E-4751-B66A-4685E07275A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BC72D1-3384-4DB1-A194-8D482BCAC659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>BnB</t>
   </si>
@@ -60,9 +71,6 @@
     <t>Football (opt94)</t>
   </si>
   <si>
-    <t>Jazz(158)</t>
-  </si>
-  <si>
     <t>Hep-th(opt3926)</t>
   </si>
   <si>
@@ -70,6 +78,18 @@
   </si>
   <si>
     <t>karate(opt14)</t>
+  </si>
+  <si>
+    <t>Netscience(opt899)</t>
+  </si>
+  <si>
+    <t>power(opt2203)</t>
+  </si>
+  <si>
+    <t>star(opt6902)</t>
+  </si>
+  <si>
+    <t>star2(opt4542)</t>
   </si>
 </sst>
 </file>
@@ -390,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="105" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,15 +447,24 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="C3">
+        <v>154.94999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="C4">
+        <v>3307</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -453,15 +482,24 @@
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>1.01</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>737</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -521,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -547,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -573,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -599,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -625,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -651,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -677,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -698,406 +736,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B46:E46"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1My\Courses\CSE algorithms\project\CSE6140-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BC72D1-3384-4DB1-A194-8D482BCAC659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABFD7B7-D29B-4070-B0B8-862AEB950323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,15 +517,24 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
+      <c r="C11">
+        <v>1.1399999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="C12">
+        <v>605</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -543,15 +552,24 @@
       <c r="A15" t="s">
         <v>4</v>
       </c>
+      <c r="C15">
+        <v>2.1999999999999999E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
+      <c r="C16">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
+      </c>
+      <c r="C17">
+        <v>2.1299999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -569,15 +587,24 @@
       <c r="A19" t="s">
         <v>4</v>
       </c>
+      <c r="C19">
+        <v>58.48</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
+      <c r="C20">
+        <v>3944</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
+      </c>
+      <c r="C21">
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -595,15 +622,24 @@
       <c r="A23" t="s">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>4.4999999999999998E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
+      <c r="C24">
+        <v>159</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
+      </c>
+      <c r="C25">
+        <v>6.3E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -621,15 +657,24 @@
       <c r="A27" t="s">
         <v>4</v>
       </c>
+      <c r="C27">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -647,15 +692,24 @@
       <c r="A31" t="s">
         <v>4</v>
       </c>
+      <c r="C31">
+        <v>2.19</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
+      <c r="C32">
+        <v>899</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -673,15 +727,24 @@
       <c r="A35" t="s">
         <v>4</v>
       </c>
+      <c r="C35">
+        <v>19.8</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
+      <c r="C36">
+        <v>2277</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
+      </c>
+      <c r="C37">
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -699,15 +762,24 @@
       <c r="A39" t="s">
         <v>4</v>
       </c>
+      <c r="C39">
+        <v>126.02</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
+      <c r="C40">
+        <v>7374</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
+      </c>
+      <c r="C41">
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -725,30 +797,39 @@
       <c r="A43" t="s">
         <v>4</v>
       </c>
+      <c r="C43">
+        <v>131.21</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
+      <c r="C44">
+        <v>4697</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
+      <c r="C45">
+        <v>3.4000000000000002E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/table.xlsx
+++ b/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1My\Courses\CSE algorithms\project\CSE6140-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\Documents\GitHub\CSE6140-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABFD7B7-D29B-4070-B0B8-862AEB950323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1764C2-EE26-4B40-BA05-A787EE2E05B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="5955" windowWidth="16530" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,12 +96,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -125,14 +132,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,16 +430,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -443,23 +461,29 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
         <v>154.94999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>478.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
         <v>3307</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D4" s="2">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -467,7 +491,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -478,23 +502,29 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="3">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="C8">
         <v>737</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -502,7 +532,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -513,23 +543,29 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="C12">
         <v>605</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="4">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -537,7 +573,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -548,23 +584,29 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="C15">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
       <c r="C16">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -572,7 +614,7 @@
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -583,23 +625,29 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="C19">
         <v>58.48</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="6">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="C20">
         <v>3944</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="6">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -607,7 +655,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -618,23 +666,29 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="C23">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="C24">
         <v>159</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -642,7 +696,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -653,23 +707,29 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="C27">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="C28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -677,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -688,23 +748,29 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="C31">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="9">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="C32">
         <v>899</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="9">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -712,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -723,23 +789,29 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="C35">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="10">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="C36">
         <v>2277</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="10">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -747,7 +819,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -758,23 +830,29 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="C39">
         <v>126.02</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D39" s="11">
+        <v>32.340000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>5</v>
       </c>
       <c r="C40">
         <v>7374</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D40" s="11">
+        <v>7541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -782,7 +860,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -793,23 +871,29 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="C43">
         <v>131.21</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D43" s="12">
+        <v>76.59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="C44">
         <v>4697</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D44" s="12">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -819,18 +903,20 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B18:E18"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\Documents\GitHub\CSE6140-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1764C2-EE26-4B40-BA05-A787EE2E05B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB20127-9326-48DE-AD79-758BD0C9C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="5955" windowWidth="16530" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17595" yWindow="5790" windowWidth="16530" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,20 +134,20 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -454,12 +454,12 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -468,7 +468,7 @@
       <c r="C3">
         <v>154.94999999999999</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>478.45</v>
       </c>
     </row>
@@ -479,7 +479,7 @@
       <c r="C4">
         <v>3307</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>3467</v>
       </c>
     </row>
@@ -490,17 +490,20 @@
       <c r="C5">
         <v>1.1999999999999999E-3</v>
       </c>
+      <c r="D5">
+        <v>4.9700000000000001E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -509,7 +512,7 @@
       <c r="C7">
         <v>1.01</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.12</v>
       </c>
     </row>
@@ -520,7 +523,7 @@
       <c r="C8">
         <v>737</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>769</v>
       </c>
     </row>
@@ -531,17 +534,20 @@
       <c r="C9">
         <v>4.8000000000000001E-2</v>
       </c>
+      <c r="D9">
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -550,7 +556,7 @@
       <c r="C11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.69</v>
       </c>
     </row>
@@ -561,7 +567,7 @@
       <c r="C12">
         <v>605</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>646</v>
       </c>
     </row>
@@ -577,12 +583,12 @@
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -591,7 +597,7 @@
       <c r="C15">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -602,7 +608,7 @@
       <c r="C16">
         <v>96</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>98</v>
       </c>
     </row>
@@ -613,17 +619,20 @@
       <c r="C17">
         <v>2.1299999999999999E-2</v>
       </c>
+      <c r="D17">
+        <v>8.7499999999999994E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -632,7 +641,7 @@
       <c r="C19">
         <v>58.48</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>17.93</v>
       </c>
     </row>
@@ -643,7 +652,7 @@
       <c r="C20">
         <v>3944</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>4153</v>
       </c>
     </row>
@@ -654,17 +663,20 @@
       <c r="C21">
         <v>4.5999999999999999E-3</v>
       </c>
+      <c r="D21">
+        <v>5.7799999999999997E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -673,7 +685,7 @@
       <c r="C23">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>0.01</v>
       </c>
     </row>
@@ -684,7 +696,7 @@
       <c r="C24">
         <v>159</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>164</v>
       </c>
     </row>
@@ -695,17 +707,20 @@
       <c r="C25">
         <v>6.3E-3</v>
       </c>
+      <c r="D25">
+        <v>3.7900000000000003E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -714,7 +729,7 @@
       <c r="C27">
         <v>1E-3</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>0.02</v>
       </c>
     </row>
@@ -725,7 +740,7 @@
       <c r="C28">
         <v>14</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>14</v>
       </c>
     </row>
@@ -736,17 +751,20 @@
       <c r="C29">
         <v>0</v>
       </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -755,7 +773,7 @@
       <c r="C31">
         <v>2.19</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>0.61</v>
       </c>
     </row>
@@ -766,7 +784,7 @@
       <c r="C32">
         <v>899</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>925</v>
       </c>
     </row>
@@ -777,17 +795,20 @@
       <c r="C33">
         <v>0</v>
       </c>
+      <c r="D33">
+        <v>2.8899999999999999E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -796,7 +817,7 @@
       <c r="C35">
         <v>19.8</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>11.8</v>
       </c>
     </row>
@@ -807,7 +828,7 @@
       <c r="C36">
         <v>2277</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>2376</v>
       </c>
     </row>
@@ -818,17 +839,20 @@
       <c r="C37">
         <v>3.4000000000000002E-2</v>
       </c>
+      <c r="D37">
+        <v>7.85E-2</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -837,7 +861,7 @@
       <c r="C39">
         <v>126.02</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <v>32.340000000000003</v>
       </c>
     </row>
@@ -848,7 +872,7 @@
       <c r="C40">
         <v>7374</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <v>7541</v>
       </c>
     </row>
@@ -859,17 +883,20 @@
       <c r="C41">
         <v>6.8000000000000005E-2</v>
       </c>
+      <c r="D41">
+        <v>9.2600000000000002E-2</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -878,7 +905,7 @@
       <c r="C43">
         <v>131.21</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>76.59</v>
       </c>
     </row>
@@ -889,7 +916,7 @@
       <c r="C44">
         <v>4697</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>4919</v>
       </c>
     </row>
@@ -900,20 +927,23 @@
       <c r="C45">
         <v>3.4000000000000002E-2</v>
       </c>
+      <c r="D45">
+        <v>8.3000000000000004E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\Documents\GitHub\CSE6140-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zfan43/Documents/6140/CSE6140-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB20127-9326-48DE-AD79-758BD0C9C90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB9EB92-1194-894A-B277-B2375A63E679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17595" yWindow="5790" windowWidth="16530" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,17 +96,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -132,25 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -430,11 +423,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
@@ -454,21 +447,24 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3">
+        <v>597.26203680038395</v>
+      </c>
       <c r="C3">
         <v>154.94999999999999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>478.45</v>
       </c>
     </row>
@@ -476,10 +472,13 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>3307</v>
+      </c>
       <c r="C4">
         <v>3307</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>3467</v>
       </c>
     </row>
@@ -487,6 +486,10 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="2">
+        <f>(B4-3303)/3303</f>
+        <v>1.2110202845897668E-3</v>
+      </c>
       <c r="C5">
         <v>1.1999999999999999E-3</v>
       </c>
@@ -498,21 +501,24 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7">
+        <v>5.51470899581909</v>
+      </c>
       <c r="C7">
         <v>1.01</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>0.12</v>
       </c>
     </row>
@@ -520,10 +526,13 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8">
+        <v>737</v>
+      </c>
       <c r="C8">
         <v>737</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>769</v>
       </c>
     </row>
@@ -531,6 +540,10 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
+      <c r="B9" s="2">
+        <f>(B8-703)/703</f>
+        <v>4.8364153627311522E-2</v>
+      </c>
       <c r="C9">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -542,21 +555,24 @@
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
+      <c r="B11">
+        <v>5.68888235092163</v>
+      </c>
       <c r="C11">
         <v>1.1399999999999999</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>0.69</v>
       </c>
     </row>
@@ -564,10 +580,13 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>605</v>
+      </c>
       <c r="C12">
         <v>605</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>646</v>
       </c>
     </row>
@@ -575,6 +594,10 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
+      <c r="B13" s="2">
+        <f>C13</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="C13">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -583,21 +606,24 @@
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
+      <c r="B15">
+        <v>0.100740194320678</v>
+      </c>
       <c r="C15">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>0</v>
       </c>
     </row>
@@ -605,10 +631,13 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
+      <c r="B16">
+        <v>95</v>
+      </c>
       <c r="C16">
         <v>96</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>98</v>
       </c>
     </row>
@@ -616,6 +645,10 @@
       <c r="A17" t="s">
         <v>6</v>
       </c>
+      <c r="B17" s="2">
+        <f>(95-94)/94</f>
+        <v>1.0638297872340425E-2</v>
+      </c>
       <c r="C17">
         <v>2.1299999999999999E-2</v>
       </c>
@@ -627,21 +660,24 @@
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
+      <c r="B19">
+        <v>223.97328805923399</v>
+      </c>
       <c r="C19">
         <v>58.48</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19">
         <v>17.93</v>
       </c>
     </row>
@@ -649,10 +685,13 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
+      <c r="B20">
+        <v>3944</v>
+      </c>
       <c r="C20">
         <v>3944</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20">
         <v>4153</v>
       </c>
     </row>
@@ -660,6 +699,10 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
+      <c r="B21" s="2">
+        <f>(B20-3926)/3944</f>
+        <v>4.5638945233265719E-3</v>
+      </c>
       <c r="C21">
         <v>4.5999999999999999E-3</v>
       </c>
@@ -671,21 +714,24 @@
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
+      <c r="B23">
+        <v>0.57563400268554599</v>
+      </c>
       <c r="C23">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>0.01</v>
       </c>
     </row>
@@ -693,10 +739,13 @@
       <c r="A24" t="s">
         <v>5</v>
       </c>
+      <c r="B24">
+        <v>158</v>
+      </c>
       <c r="C24">
         <v>159</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24">
         <v>164</v>
       </c>
     </row>
@@ -704,6 +753,9 @@
       <c r="A25" t="s">
         <v>6</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>6.3E-3</v>
       </c>
@@ -715,21 +767,24 @@
       <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
+      <c r="B27">
+        <v>4.0047168731689401E-3</v>
+      </c>
       <c r="C27">
         <v>1E-3</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27">
         <v>0.02</v>
       </c>
     </row>
@@ -737,10 +792,13 @@
       <c r="A28" t="s">
         <v>5</v>
       </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
       <c r="C28">
         <v>14</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28">
         <v>14</v>
       </c>
     </row>
@@ -748,6 +806,9 @@
       <c r="A29" t="s">
         <v>6</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>0</v>
       </c>
@@ -759,21 +820,24 @@
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
+      <c r="B31">
+        <v>8.6861209869384695</v>
+      </c>
       <c r="C31">
         <v>2.19</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31">
         <v>0.61</v>
       </c>
     </row>
@@ -781,10 +845,13 @@
       <c r="A32" t="s">
         <v>5</v>
       </c>
+      <c r="B32">
+        <v>899</v>
+      </c>
       <c r="C32">
         <v>899</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32">
         <v>925</v>
       </c>
     </row>
@@ -792,6 +859,9 @@
       <c r="A33" t="s">
         <v>6</v>
       </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
       <c r="C33">
         <v>0</v>
       </c>
@@ -803,21 +873,24 @@
       <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
+      <c r="B35">
+        <v>67.363576650619507</v>
+      </c>
       <c r="C35">
         <v>19.8</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35">
         <v>11.8</v>
       </c>
     </row>
@@ -825,10 +898,13 @@
       <c r="A36" t="s">
         <v>5</v>
       </c>
+      <c r="B36">
+        <v>2277</v>
+      </c>
       <c r="C36">
         <v>2277</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36">
         <v>2376</v>
       </c>
     </row>
@@ -836,6 +912,10 @@
       <c r="A37" t="s">
         <v>6</v>
       </c>
+      <c r="B37" s="2">
+        <f>C37</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
       <c r="C37">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -847,21 +927,24 @@
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
+      <c r="B39">
+        <v>1142.12968587875</v>
+      </c>
       <c r="C39">
         <v>126.02</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39">
         <v>32.340000000000003</v>
       </c>
     </row>
@@ -869,10 +952,13 @@
       <c r="A40" t="s">
         <v>5</v>
       </c>
+      <c r="B40">
+        <v>7374</v>
+      </c>
       <c r="C40">
         <v>7374</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40">
         <v>7541</v>
       </c>
     </row>
@@ -880,6 +966,10 @@
       <c r="A41" t="s">
         <v>6</v>
       </c>
+      <c r="B41" s="2">
+        <f>C41</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
       <c r="C41">
         <v>6.8000000000000005E-2</v>
       </c>
@@ -891,21 +981,24 @@
       <c r="A42" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
+      <c r="B43">
+        <v>688.50317192077603</v>
+      </c>
       <c r="C43">
         <v>131.21</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43">
         <v>76.59</v>
       </c>
     </row>
@@ -913,10 +1006,13 @@
       <c r="A44" t="s">
         <v>5</v>
       </c>
+      <c r="B44">
+        <v>4697</v>
+      </c>
       <c r="C44">
         <v>4697</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44">
         <v>4919</v>
       </c>
     </row>
@@ -924,6 +1020,10 @@
       <c r="A45" t="s">
         <v>6</v>
       </c>
+      <c r="B45" s="2">
+        <f>C45</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
       <c r="C45">
         <v>3.4000000000000002E-2</v>
       </c>
@@ -933,17 +1033,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zfan43/Documents/6140/CSE6140-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\fall2022\cse6140\project\git_wenchao\CSE6140-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB9EB92-1194-894A-B277-B2375A63E679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21364EFD-C619-4540-9730-333BEA9233A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1476" yWindow="5376" windowWidth="21264" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -97,19 +86,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -137,13 +126,13 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,16 +412,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:E38"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -443,18 +432,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -467,8 +456,11 @@
       <c r="D3">
         <v>478.45</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>446.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -481,12 +473,15 @@
       <c r="D4">
         <v>3467</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <f>(B4-3303)/3303</f>
         <v>1.2110202845897668E-3</v>
       </c>
@@ -496,19 +491,22 @@
       <c r="D5">
         <v>4.9700000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -521,8 +519,11 @@
       <c r="D7">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>1.2789999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -535,12 +536,15 @@
       <c r="D8">
         <v>769</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <f>(B8-703)/703</f>
         <v>4.8364153627311522E-2</v>
       </c>
@@ -550,19 +554,22 @@
       <c r="D9">
         <v>9.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -575,8 +582,11 @@
       <c r="D11">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>0.67400000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -589,31 +599,40 @@
       <c r="D12">
         <v>646</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <f>C13</f>
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="C13">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -626,8 +645,11 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -640,12 +662,15 @@
       <c r="D16">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <f>(95-94)/94</f>
         <v>1.0638297872340425E-2</v>
       </c>
@@ -655,19 +680,22 @@
       <c r="D17">
         <v>8.7499999999999994E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -680,8 +708,11 @@
       <c r="D19">
         <v>17.93</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -694,12 +725,15 @@
       <c r="D20">
         <v>4153</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <f>(B20-3926)/3944</f>
         <v>4.5638945233265719E-3</v>
       </c>
@@ -709,19 +743,22 @@
       <c r="D21">
         <v>5.7799999999999997E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -734,8 +771,11 @@
       <c r="D23">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -748,8 +788,11 @@
       <c r="D24">
         <v>164</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -762,19 +805,22 @@
       <c r="D25">
         <v>3.7900000000000003E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -787,8 +833,11 @@
       <c r="D27">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -801,8 +850,11 @@
       <c r="D28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -815,19 +867,22 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -840,8 +895,11 @@
       <c r="D31">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -854,8 +912,11 @@
       <c r="D32">
         <v>925</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -868,19 +929,22 @@
       <c r="D33">
         <v>2.8899999999999999E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -893,8 +957,11 @@
       <c r="D35">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -907,12 +974,15 @@
       <c r="D36">
         <v>2376</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <f>C37</f>
         <v>3.4000000000000002E-2</v>
       </c>
@@ -922,19 +992,22 @@
       <c r="D37">
         <v>7.85E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -947,8 +1020,11 @@
       <c r="D39">
         <v>32.340000000000003</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>41.34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -961,12 +1037,15 @@
       <c r="D40">
         <v>7541</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>7374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <f>C41</f>
         <v>6.8000000000000005E-2</v>
       </c>
@@ -976,19 +1055,22 @@
       <c r="D41">
         <v>9.2600000000000002E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1001,8 +1083,11 @@
       <c r="D43">
         <v>76.59</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1015,12 +1100,15 @@
       <c r="D44">
         <v>4919</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <f>C45</f>
         <v>3.4000000000000002E-2</v>
       </c>
@@ -1030,20 +1118,23 @@
       <c r="D45">
         <v>8.3000000000000004E-2</v>
       </c>
+      <c r="E45">
+        <v>3.4000000000000002E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\fall2022\cse6140\project\git_wenchao\CSE6140-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1My\Courses\CSE algorithms\project\CSE6140-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21364EFD-C619-4540-9730-333BEA9233A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A519DB9-A431-4273-A658-46D86607B37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1476" yWindow="5376" windowWidth="21264" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
     <t>BnB</t>
   </si>
@@ -33,9 +44,6 @@
     <t>Approx</t>
   </si>
   <si>
-    <t>SA</t>
-  </si>
-  <si>
     <t>Graph name</t>
   </si>
   <si>
@@ -79,6 +87,12 @@
   </si>
   <si>
     <t>star2(opt4542)</t>
+  </si>
+  <si>
+    <t>SA (LS1)</t>
+  </si>
+  <si>
+    <t>HC(LS2)</t>
   </si>
 </sst>
 </file>
@@ -86,19 +100,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -126,13 +140,13 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,15 +427,15 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -429,23 +443,26 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>597.26203680038395</v>
@@ -460,9 +477,9 @@
         <v>446.37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3307</v>
@@ -477,9 +494,9 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <f>(B4-3303)/3303</f>
@@ -495,20 +512,20 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>5.51470899581909</v>
@@ -523,9 +540,9 @@
         <v>1.2789999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>737</v>
@@ -540,9 +557,9 @@
         <v>735</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <f>(B8-703)/703</f>
@@ -558,20 +575,20 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>5.68888235092163</v>
@@ -586,9 +603,9 @@
         <v>0.67400000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>605</v>
@@ -603,9 +620,9 @@
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1">
         <f>C13</f>
@@ -621,20 +638,20 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>0.100740194320678</v>
@@ -649,9 +666,9 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>95</v>
@@ -666,9 +683,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1">
         <f>(95-94)/94</f>
@@ -684,20 +701,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>223.97328805923399</v>
@@ -712,9 +729,9 @@
         <v>19.18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>3944</v>
@@ -729,9 +746,9 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="1">
         <f>(B20-3926)/3944</f>
@@ -747,20 +764,20 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>0.57563400268554599</v>
@@ -775,9 +792,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>158</v>
@@ -792,9 +809,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -809,20 +826,20 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>4.0047168731689401E-3</v>
@@ -837,9 +854,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>14</v>
@@ -854,9 +871,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -871,20 +888,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31">
         <v>8.6861209869384695</v>
@@ -899,9 +916,9 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>899</v>
@@ -916,9 +933,9 @@
         <v>899</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -933,20 +950,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
         <v>67.363576650619507</v>
@@ -961,9 +978,9 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>2277</v>
@@ -978,9 +995,9 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1">
         <f>C37</f>
@@ -996,20 +1013,20 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
         <v>1142.12968587875</v>
@@ -1024,9 +1041,9 @@
         <v>41.34</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>7374</v>
@@ -1041,9 +1058,9 @@
         <v>7374</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="1">
         <f>C41</f>
@@ -1059,20 +1076,20 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
         <v>688.50317192077603</v>
@@ -1087,9 +1104,9 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>4697</v>
@@ -1104,9 +1121,9 @@
         <v>4697</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1">
         <f>C45</f>
@@ -1124,17 +1141,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1My\Courses\CSE algorithms\project\CSE6140-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A519DB9-A431-4273-A658-46D86607B37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3518211F-733E-43D5-9608-4F1AD38FCA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -468,7 +468,7 @@
         <v>597.26203680038395</v>
       </c>
       <c r="C3">
-        <v>154.94999999999999</v>
+        <v>30.015000000000001</v>
       </c>
       <c r="D3">
         <v>478.45</v>
@@ -531,7 +531,7 @@
         <v>5.51470899581909</v>
       </c>
       <c r="C7">
-        <v>1.01</v>
+        <v>0.16</v>
       </c>
       <c r="D7">
         <v>0.12</v>
@@ -594,7 +594,7 @@
         <v>5.68888235092163</v>
       </c>
       <c r="C11">
-        <v>1.1399999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="D11">
         <v>0.69</v>
@@ -657,7 +657,7 @@
         <v>0.100740194320678</v>
       </c>
       <c r="C15">
-        <v>2.1999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>223.97328805923399</v>
       </c>
       <c r="C19">
-        <v>58.48</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="D19">
         <v>17.93</v>
@@ -783,7 +783,7 @@
         <v>0.57563400268554599</v>
       </c>
       <c r="C23">
-        <v>4.4999999999999998E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D23">
         <v>0.01</v>
@@ -907,7 +907,7 @@
         <v>8.6861209869384695</v>
       </c>
       <c r="C31">
-        <v>2.19</v>
+        <v>0.37</v>
       </c>
       <c r="D31">
         <v>0.61</v>
@@ -969,7 +969,7 @@
         <v>67.363576650619507</v>
       </c>
       <c r="C35">
-        <v>19.8</v>
+        <v>3.0110000000000001</v>
       </c>
       <c r="D35">
         <v>11.8</v>
@@ -1032,7 +1032,7 @@
         <v>1142.12968587875</v>
       </c>
       <c r="C39">
-        <v>126.02</v>
+        <v>19.54</v>
       </c>
       <c r="D39">
         <v>32.340000000000003</v>
@@ -1095,7 +1095,7 @@
         <v>688.50317192077603</v>
       </c>
       <c r="C43">
-        <v>131.21</v>
+        <v>22.097999999999999</v>
       </c>
       <c r="D43">
         <v>76.59</v>
@@ -1141,17 +1141,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
